--- a/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
+++ b/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
@@ -85,12 +85,16 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -299,7 +303,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +348,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -352,9 +362,12 @@
     <cellStyle name="Стиль 2" xfId="3"/>
     <cellStyle name="Стиль 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="64">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1006,7 +1019,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A1:H44" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A1:H44" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:H44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1018,14 +1031,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Год" dataDxfId="9"/>
-    <tableColumn id="2" name="1 ₰" dataDxfId="8"/>
-    <tableColumn id="3" name="5 ₰" dataDxfId="7"/>
-    <tableColumn id="4" name="10 ₰" dataDxfId="6"/>
-    <tableColumn id="5" name="20 ₰" dataDxfId="5"/>
-    <tableColumn id="6" name="50 ₰" dataDxfId="4"/>
-    <tableColumn id="7" name="1 ℳ" dataDxfId="3"/>
-    <tableColumn id="8" name="2 ℳ" dataDxfId="2"/>
+    <tableColumn id="1" name="Год" dataDxfId="10"/>
+    <tableColumn id="2" name="1 ₰" dataDxfId="9"/>
+    <tableColumn id="3" name="5 ₰" dataDxfId="8"/>
+    <tableColumn id="4" name="10 ₰" dataDxfId="7"/>
+    <tableColumn id="5" name="20 ₰" dataDxfId="6"/>
+    <tableColumn id="6" name="50 ₰" dataDxfId="5"/>
+    <tableColumn id="7" name="1 ℳ" dataDxfId="4"/>
+    <tableColumn id="8" name="2 ℳ" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1039,9 +1052,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="1"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="0" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1347,18 +1360,16 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="3" width="5.36328125" customWidth="1"/>
-    <col min="4" max="6" width="6.36328125" customWidth="1"/>
-    <col min="7" max="8" width="6.453125" customWidth="1"/>
+    <col min="2" max="8" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2683,7 +2694,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5 B8:B13 B30">
-    <cfRule type="containsText" dxfId="62" priority="104" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="104" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,42 +2795,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="61" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="60" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="58" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B29">
-    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="containsText" dxfId="56" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="55" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 C8:C21">
-    <cfRule type="containsText" dxfId="54" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2920,42 +2931,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="53" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="52" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="51" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C29">
-    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C44">
-    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5 D8:D16">
-    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3056,42 +3067,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="45" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="44" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D29">
-    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D44">
-    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="39" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E8:E16">
-    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3192,47 +3203,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="34" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E29">
-    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E44">
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H22">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3273,7 +3284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3290,7 +3301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3307,7 +3318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F21">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3324,12 +3335,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F44 F12">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3346,7 +3357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3363,7 +3374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G9">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3380,7 +3391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G25">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3409,12 +3420,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G44">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G17">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3431,7 +3442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,7 +3459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3465,7 +3476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3494,7 +3505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3523,12 +3534,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H44">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3548,7 +3559,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3573,10 +3584,10 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
+++ b/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Германия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Германия\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1 пфенинг - 2 марки" sheetId="12" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,13 +98,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,8 +111,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +174,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,19 +218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -219,17 +233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -238,17 +241,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -264,54 +256,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -321,38 +278,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -362,7 +322,7 @@
     <cellStyle name="Стиль 2" xfId="3"/>
     <cellStyle name="Стиль 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="53">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -371,228 +331,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8064A2"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8064A2"/>
-          <bgColor rgb="FF8064A2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1019,32 +757,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A1:H44" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:H44">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Год" dataDxfId="10"/>
-    <tableColumn id="2" name="1 ₰" dataDxfId="9"/>
-    <tableColumn id="3" name="5 ₰" dataDxfId="8"/>
-    <tableColumn id="4" name="10 ₰" dataDxfId="7"/>
-    <tableColumn id="5" name="20 ₰" dataDxfId="6"/>
-    <tableColumn id="6" name="50 ₰" dataDxfId="5"/>
-    <tableColumn id="7" name="1 ℳ" dataDxfId="4"/>
-    <tableColumn id="8" name="2 ℳ" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -1359,1342 +1071,1511 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="8" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1948</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IF(OR(AND(D2&gt;1,D2&lt;&gt;"-"),AND(E2&gt;1,E2&lt;&gt;"-"),AND(F2&gt;1,F2&lt;&gt;"-"),AND(G2&gt;1,G2&lt;&gt;"-"),AND(H2&gt;1,H2&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2:S44" si="0">PRODUCT(B2:B2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="str">
+        <f>IF(OR(AND(B2&gt;1,B2&lt;&gt;"-"),AND(C2&gt;1,C2&lt;&gt;"-"),AND(D2&gt;1,D2&lt;&gt;"-"),AND(E2&gt;1,E2&lt;&gt;"-"),AND(F2&gt;1,F2&lt;&gt;"-"),AND(G2&gt;1,G2&lt;&gt;"-"),AND(H2&gt;1,H2&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" ref="S2:S5" si="0">PRODUCT(B2:B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1949</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="str">
+        <f t="shared" ref="I3:I44" si="1">IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+      <c r="S3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1950</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1951</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>1952</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S44" si="2">PRODUCT(B6:B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1953</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>1954</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>1955</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>1956</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="B10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>1957</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="B11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="S11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="I11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>1958</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>1959</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>1960</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>1961</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>1962</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>1963</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>1964</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>1965</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>1966</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>1967</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>1968</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>1969</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>1970</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>1971</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>1972</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
       </c>
-      <c r="S26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+      <c r="I26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>1973</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
         <v>0</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
       </c>
-      <c r="S27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="I27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>1974</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
       </c>
-      <c r="S28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+      <c r="I28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>1975</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
-      <c r="S29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="I29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>1976</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="B30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
       </c>
-      <c r="S30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+      <c r="I30" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>1977</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
       </c>
-      <c r="S31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="I31" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>1978</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="9">
         <v>0</v>
       </c>
-      <c r="S32" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+      <c r="I32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>1979</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
       </c>
-      <c r="S33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="I33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>1980</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="9">
         <v>0</v>
       </c>
-      <c r="S34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+      <c r="I34" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>1981</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
       </c>
-      <c r="S35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="I35" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>1982</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="9">
         <v>0</v>
       </c>
-      <c r="S36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+      <c r="I36" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>1983</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
       </c>
-      <c r="S37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="I37" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>1984</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="9">
         <v>0</v>
       </c>
-      <c r="S38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="I38" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>1985</v>
       </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
       </c>
-      <c r="S39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="I39" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>1986</v>
       </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
       </c>
-      <c r="S40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+      <c r="I40" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>1987</v>
       </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="S41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="I41" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>1986</v>
       </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
         <v>0</v>
       </c>
       <c r="H42" s="9">
         <v>0</v>
       </c>
-      <c r="S42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
+      <c r="I42" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>1987</v>
       </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="9">
         <v>0</v>
       </c>
-      <c r="S43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
+      <c r="I43" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>1990</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13">
-        <v>0</v>
-      </c>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="14">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <f t="shared" si="0"/>
+      <c r="B44" s="8">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5 B8:B13 B30">
-    <cfRule type="containsText" dxfId="63" priority="104" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="104" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2795,42 +2676,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="62" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="61" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="59" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B29">
-    <cfRule type="containsText" dxfId="58" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B44">
-    <cfRule type="containsText" dxfId="57" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="56" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 C8:C21">
-    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2931,42 +2812,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="54" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="53" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="51" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C29">
-    <cfRule type="containsText" dxfId="50" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C44">
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5 D8:D16">
-    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3067,42 +2948,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="43" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D29">
-    <cfRule type="containsText" dxfId="42" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D44">
-    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="40" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E8:E16">
-    <cfRule type="containsText" dxfId="39" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3203,47 +3084,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="38" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="36" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E29">
-    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E44">
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H22">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3284,7 +3165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3301,7 +3182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3318,7 +3199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F21">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3335,12 +3216,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F44 F12">
-    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3357,7 +3238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3374,7 +3255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G9">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3391,7 +3272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G25">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3420,12 +3301,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G44">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G17">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3442,7 +3323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3459,7 +3340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3476,7 +3357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3505,7 +3386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3534,20 +3415,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H44">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -3555,21 +3433,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3580,20 +3458,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
+++ b/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Германия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Германия\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="198">
   <si>
     <t>Год</t>
   </si>
@@ -1105,6 +1105,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1114,7 +1116,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,6 +1151,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC0D9"/>
         <bgColor rgb="FF8064A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2DBE9"/>
+        <bgColor rgb="FFCCC0D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1289,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,6 +1348,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,24 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,14 +1386,15 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="92">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1479,135 +1491,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2253,9 +2136,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="30"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="29" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="28"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2560,41 +2443,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2608,17 +2491,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -2632,14 +2515,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2654,17 +2537,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="15">
@@ -2678,17 +2561,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2702,7 +2585,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1952</v>
       </c>
@@ -2726,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1953</v>
       </c>
@@ -2750,7 +2633,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1954</v>
       </c>
@@ -2760,7 +2643,7 @@
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15">
@@ -2774,7 +2657,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1955</v>
       </c>
@@ -2784,7 +2667,7 @@
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15">
@@ -2798,7 +2681,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1956</v>
       </c>
@@ -2808,7 +2691,7 @@
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15">
@@ -2822,7 +2705,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1957</v>
       </c>
@@ -2832,7 +2715,7 @@
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15">
@@ -2846,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1958</v>
       </c>
@@ -2856,7 +2739,7 @@
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15">
@@ -2870,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1959</v>
       </c>
@@ -2880,7 +2763,7 @@
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15">
@@ -2894,17 +2777,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2918,17 +2801,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2942,17 +2825,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2966,17 +2849,17 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2990,17 +2873,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -3014,17 +2897,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -3038,17 +2921,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -3062,17 +2945,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -3086,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1968</v>
       </c>
@@ -3096,7 +2979,7 @@
       <c r="C23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -3110,17 +2993,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -3134,17 +3017,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -3158,17 +3041,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1971</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -3182,7 +3065,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1972</v>
       </c>
@@ -3192,7 +3075,7 @@
       <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -3206,7 +3089,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1973</v>
       </c>
@@ -3216,7 +3099,7 @@
       <c r="C28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15">
@@ -3230,17 +3113,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -3254,7 +3137,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1975</v>
       </c>
@@ -3264,7 +3147,7 @@
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15">
@@ -3278,17 +3161,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -3302,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1977</v>
       </c>
@@ -3312,7 +3195,7 @@
       <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15">
@@ -3326,7 +3209,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1978</v>
       </c>
@@ -3336,7 +3219,7 @@
       <c r="C33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -3350,7 +3233,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1979</v>
       </c>
@@ -3360,7 +3243,7 @@
       <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -3374,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1980</v>
       </c>
@@ -3384,7 +3267,7 @@
       <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -3398,7 +3281,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1981</v>
       </c>
@@ -3408,7 +3291,7 @@
       <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -3422,7 +3305,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1982</v>
       </c>
@@ -3432,7 +3315,7 @@
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -3446,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -3456,7 +3339,7 @@
       <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -3470,7 +3353,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1984</v>
       </c>
@@ -3480,7 +3363,7 @@
       <c r="C39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15">
@@ -3494,7 +3377,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1985</v>
       </c>
@@ -3504,7 +3387,7 @@
       <c r="C40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -3518,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1986</v>
       </c>
@@ -3528,7 +3411,7 @@
       <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -3542,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1987</v>
       </c>
@@ -3552,7 +3435,7 @@
       <c r="C42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15">
@@ -3566,7 +3449,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1988</v>
       </c>
@@ -3576,7 +3459,7 @@
       <c r="C43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -3590,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1989</v>
       </c>
@@ -3600,7 +3483,7 @@
       <c r="C44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -3614,7 +3497,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1990</v>
       </c>
@@ -3624,7 +3507,7 @@
       <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15">
@@ -3731,37 +3614,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="107" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="106" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="104" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="103" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="102" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 E6:F6 E15:F22 F9:F14 E24:F26 F23 E29:F29 F27:F28 E31:F31 F30 F32:F45">
-    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3778,7 +3661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="100" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3795,7 +3678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E14">
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3812,7 +3695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="98" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3829,7 +3712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3846,7 +3729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,7 +3746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3880,7 +3763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3897,7 +3780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="93" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3914,7 +3797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E44">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3929,40 +3812,40 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="25"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3976,17 +3859,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -4000,15 +3883,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="15">
@@ -4022,15 +3905,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="15">
@@ -4044,17 +3927,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -4068,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
@@ -4092,7 +3975,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -4116,17 +3999,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -4140,17 +4023,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -4164,17 +4047,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -4188,17 +4071,17 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -4212,17 +4095,17 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -4236,17 +4119,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -4260,17 +4143,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -4284,17 +4167,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -4308,17 +4191,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -4332,17 +4215,17 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -4356,17 +4239,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -4380,17 +4263,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -4404,17 +4287,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -4428,17 +4311,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -4452,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -4462,7 +4345,7 @@
       <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -4476,17 +4359,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -4500,17 +4383,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -4524,17 +4407,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="B26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -4548,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -4558,7 +4441,7 @@
       <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -4572,17 +4455,17 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="B28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -4596,17 +4479,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -4620,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -4630,7 +4513,7 @@
       <c r="C30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15">
@@ -4644,17 +4527,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="10">
-        <v>2</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -4668,17 +4551,17 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -4692,7 +4575,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -4702,7 +4585,7 @@
       <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -4716,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -4726,7 +4609,7 @@
       <c r="C34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -4740,7 +4623,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -4750,7 +4633,7 @@
       <c r="C35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -4764,7 +4647,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -4774,7 +4657,7 @@
       <c r="C36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -4788,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -4798,7 +4681,7 @@
       <c r="C37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -4812,7 +4695,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -4822,7 +4705,7 @@
       <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -4836,7 +4719,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -4846,7 +4729,7 @@
       <c r="C39" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15">
@@ -4860,7 +4743,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -4870,7 +4753,7 @@
       <c r="C40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -4884,7 +4767,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -4894,7 +4777,7 @@
       <c r="C41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -4908,7 +4791,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
@@ -4918,7 +4801,7 @@
       <c r="C42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15">
@@ -4932,7 +4815,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -4942,7 +4825,7 @@
       <c r="C43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -4956,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -4966,7 +4849,7 @@
       <c r="C44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -4980,7 +4863,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
@@ -4990,7 +4873,7 @@
       <c r="C45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15">
@@ -5004,17 +4887,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -5024,7 +4907,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:F8 E3:E5 E23 E30 E33:E45 E27">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -5039,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5056,7 +4939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5073,7 +4956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E22">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5090,7 +4973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F45">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5107,7 +4990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5124,7 +5007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5141,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5158,7 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5175,7 +5058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5192,7 +5075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5209,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5236,40 +5119,40 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="A1:F45"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="25"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -5283,17 +5166,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -5307,15 +5190,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="15">
@@ -5329,14 +5212,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="9" t="s">
         <v>75</v>
       </c>
@@ -5351,17 +5234,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -5375,7 +5258,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
@@ -5399,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -5426,17 +5309,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -5450,17 +5333,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -5474,17 +5357,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -5499,17 +5382,17 @@
       </c>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -5523,17 +5406,17 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -5547,17 +5430,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5571,17 +5454,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -5595,17 +5478,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -5619,17 +5502,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -5643,7 +5526,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -5653,7 +5536,7 @@
       <c r="C18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15">
@@ -5667,17 +5550,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -5691,7 +5574,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -5701,7 +5584,7 @@
       <c r="C20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15">
@@ -5715,17 +5598,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -5739,7 +5622,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -5749,7 +5632,7 @@
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15">
@@ -5763,7 +5646,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -5773,7 +5656,7 @@
       <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -5787,17 +5670,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -5811,7 +5694,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -5821,7 +5704,7 @@
       <c r="C25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15">
@@ -5835,7 +5718,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -5845,7 +5728,7 @@
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15">
@@ -5859,7 +5742,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -5869,7 +5752,7 @@
       <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -5883,7 +5766,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -5893,7 +5776,7 @@
       <c r="C28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15">
@@ -5907,17 +5790,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -5931,17 +5814,17 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="B30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -5955,17 +5838,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -5979,17 +5862,17 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -6003,7 +5886,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -6013,7 +5896,7 @@
       <c r="C33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -6027,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -6037,7 +5920,7 @@
       <c r="C34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -6051,7 +5934,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -6061,7 +5944,7 @@
       <c r="C35" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -6075,7 +5958,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -6085,7 +5968,7 @@
       <c r="C36" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -6099,7 +5982,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -6109,7 +5992,7 @@
       <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -6123,7 +6006,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -6133,7 +6016,7 @@
       <c r="C38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -6147,17 +6030,17 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -6171,7 +6054,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -6181,7 +6064,7 @@
       <c r="C40" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -6195,7 +6078,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -6205,7 +6088,7 @@
       <c r="C41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -6219,17 +6102,17 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -6243,7 +6126,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -6253,7 +6136,7 @@
       <c r="C43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -6267,7 +6150,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -6277,7 +6160,7 @@
       <c r="C44" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -6291,17 +6174,17 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -6315,17 +6198,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -6335,7 +6218,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6 F3:F4 E9:F17 E19:F19 F18 E21:F21 F20 E24:F24 F22:F23 E29:F32 F25:F28 F33:F45">
-    <cfRule type="containsText" dxfId="91" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6364,7 +6247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="90" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6381,7 +6264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="89" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6398,7 +6281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="88" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6415,7 +6298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="87" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6432,7 +6315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6449,7 +6332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6466,7 +6349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="84" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6483,7 +6366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6500,7 +6383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6517,7 +6400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6534,7 +6417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E28">
-    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6551,12 +6434,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E38 E43:E44 E40:E41">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6573,7 +6456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6590,7 +6473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6617,26 +6500,26 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -6646,9 +6529,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -6656,14 +6539,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -6674,14 +6557,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -6692,14 +6575,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -6710,14 +6593,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -6728,14 +6611,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -6746,14 +6629,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -6764,14 +6647,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -6782,14 +6665,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -6800,14 +6683,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -6818,14 +6701,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -6836,14 +6719,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -6854,14 +6737,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -6872,14 +6755,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -6890,14 +6773,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -6908,14 +6791,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -6926,14 +6809,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -6944,14 +6827,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -6962,14 +6845,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -6980,14 +6863,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -6998,14 +6881,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -7016,14 +6899,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -7034,7 +6917,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -7052,14 +6935,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -7070,7 +6953,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -7088,7 +6971,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -7106,7 +6989,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -7124,7 +7007,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -7142,14 +7025,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -7160,14 +7043,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -7178,14 +7061,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -7196,14 +7079,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -7214,7 +7097,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -7232,7 +7115,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -7250,7 +7133,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -7268,7 +7151,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -7286,7 +7169,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -7304,7 +7187,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -7322,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -7340,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -7358,14 +7241,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -7376,14 +7259,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -7394,7 +7277,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -7412,14 +7295,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -7430,17 +7313,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -7507,27 +7390,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 D26:D29">
-    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D41 D44">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D23">
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D33">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7544,7 +7427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7561,12 +7444,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7593,26 +7476,26 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -7622,9 +7505,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -7632,14 +7515,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -7650,14 +7533,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -7668,7 +7551,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
@@ -7686,14 +7569,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -7704,14 +7587,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -7722,14 +7605,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -7740,14 +7623,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -7758,14 +7641,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -7776,14 +7659,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -7794,14 +7677,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -7812,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -7830,14 +7713,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -7848,14 +7731,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -7866,14 +7749,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -7884,14 +7767,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -7902,14 +7785,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -7920,14 +7803,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -7938,14 +7821,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -7956,14 +7839,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -7974,14 +7857,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -7992,7 +7875,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -8010,14 +7893,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -8028,14 +7911,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -8046,7 +7929,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -8064,7 +7947,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -8082,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -8100,14 +7983,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -8118,14 +8001,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -8136,14 +8019,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -8154,14 +8037,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -8172,14 +8055,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -8190,7 +8073,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -8208,7 +8091,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -8226,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -8244,7 +8127,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -8262,7 +8145,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -8280,7 +8163,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -8298,7 +8181,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -8316,7 +8199,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -8334,14 +8217,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -8352,14 +8235,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -8370,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -8388,14 +8271,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -8406,17 +8289,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -8434,7 +8317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 D13 D26:D28 D44 D34:D41">
+  <conditionalFormatting sqref="D13 D23 D26:D28 D44 D34:D41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8495,32 +8378,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D12">
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D22">
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 D13 D26:D28 D44 D34:D41">
-    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8537,7 +8420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8554,7 +8437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8571,7 +8454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8588,7 +8471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8605,7 +8488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8622,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D33">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8637,26 +8520,26 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -8666,9 +8549,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -8676,14 +8559,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1948</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -8694,14 +8577,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1949</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -8712,14 +8595,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1950</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -8730,14 +8613,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -8748,14 +8631,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1952</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -8766,14 +8649,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1953</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -8784,14 +8667,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -8802,14 +8685,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -8820,7 +8703,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1956</v>
       </c>
@@ -8838,14 +8721,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -8856,14 +8739,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -8874,14 +8757,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -8892,14 +8775,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -8910,14 +8793,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -8928,7 +8811,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1962</v>
       </c>
@@ -8946,7 +8829,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1963</v>
       </c>
@@ -8964,14 +8847,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -8982,14 +8865,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -9000,14 +8883,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -9018,14 +8901,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -9036,14 +8919,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1968</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -9054,14 +8937,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -9072,14 +8955,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -9090,14 +8973,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1971</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -9108,7 +8991,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1972</v>
       </c>
@@ -9126,7 +9009,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1973</v>
       </c>
@@ -9144,14 +9027,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -9162,7 +9045,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1975</v>
       </c>
@@ -9180,14 +9063,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -9198,7 +9081,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1977</v>
       </c>
@@ -9216,7 +9099,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1978</v>
       </c>
@@ -9234,7 +9117,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1979</v>
       </c>
@@ -9252,7 +9135,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1980</v>
       </c>
@@ -9270,7 +9153,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1981</v>
       </c>
@@ -9288,7 +9171,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1982</v>
       </c>
@@ -9306,7 +9189,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -9324,7 +9207,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1984</v>
       </c>
@@ -9342,7 +9225,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1985</v>
       </c>
@@ -9360,7 +9243,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1986</v>
       </c>
@@ -9378,14 +9261,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -9396,14 +9279,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -9414,14 +9297,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1989</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -9432,14 +9315,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -9450,17 +9333,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -9527,27 +9410,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D26">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D28 D30 D32:D41">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 D17:D18">
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9564,7 +9447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9581,7 +9464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9598,7 +9481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9615,7 +9498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D45">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9630,26 +9513,26 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -9659,9 +9542,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -9669,14 +9552,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -9687,14 +9570,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -9705,14 +9588,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -9723,14 +9606,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -9741,14 +9624,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -9759,14 +9642,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -9777,14 +9660,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -9795,14 +9678,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -9813,14 +9696,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -9831,7 +9714,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -9849,14 +9732,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -9867,14 +9750,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -9885,14 +9768,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -9903,14 +9786,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -9921,14 +9804,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -9939,14 +9822,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -9957,14 +9840,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -9975,14 +9858,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -9993,14 +9876,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -10011,14 +9894,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -10029,14 +9912,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -10047,14 +9930,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -10065,14 +9948,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -10083,14 +9966,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -10101,15 +9984,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
+      <c r="B27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>1</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>1</v>
@@ -10119,14 +10002,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -10137,7 +10020,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -10155,7 +10038,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -10173,14 +10056,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -10191,7 +10074,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -10209,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -10227,7 +10110,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -10245,7 +10128,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -10263,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -10281,7 +10164,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -10299,7 +10182,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -10317,7 +10200,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -10335,7 +10218,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -10353,7 +10236,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -10371,7 +10254,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
@@ -10389,7 +10272,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -10407,7 +10290,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -10425,14 +10308,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -10443,17 +10326,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -10472,7 +10355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10501,7 +10384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10530,7 +10413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D23">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10547,7 +10430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10564,22 +10447,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D30 D32:D44">
-    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10596,7 +10479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10613,7 +10496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10630,7 +10513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10656,27 +10539,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -10686,9 +10569,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -10696,14 +10579,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -10714,14 +10597,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -10732,14 +10615,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10750,14 +10633,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -10768,14 +10651,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -10786,14 +10669,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -10804,14 +10687,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -10822,14 +10705,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -10840,14 +10723,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -10858,14 +10741,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -10876,14 +10759,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -10894,14 +10777,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -10915,14 +10798,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -10936,14 +10819,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -10957,14 +10840,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -10978,14 +10861,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -10999,14 +10882,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -11020,14 +10903,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -11041,14 +10924,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -11062,14 +10945,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -11083,14 +10966,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -11104,7 +10987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -11125,14 +11008,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -11143,7 +11026,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -11161,7 +11044,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -11179,14 +11062,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -11197,14 +11080,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -11215,14 +11098,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -11233,14 +11116,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -11251,14 +11134,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -11269,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -11287,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -11305,7 +11188,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -11323,14 +11206,14 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -11341,7 +11224,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1981</v>
       </c>
@@ -11359,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1982</v>
       </c>
@@ -11377,7 +11260,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1982</v>
       </c>
@@ -11395,7 +11278,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1982</v>
       </c>
@@ -11413,7 +11296,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1983</v>
       </c>
@@ -11431,7 +11314,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1983</v>
       </c>
@@ -11449,7 +11332,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1983</v>
       </c>
@@ -11467,7 +11350,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1983</v>
       </c>
@@ -11485,7 +11368,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1983</v>
       </c>
@@ -11503,7 +11386,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1984</v>
       </c>
@@ -11521,7 +11404,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1984</v>
       </c>
@@ -11539,7 +11422,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1984</v>
       </c>
@@ -11557,7 +11440,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1985</v>
       </c>
@@ -11575,7 +11458,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1985</v>
       </c>
@@ -11593,7 +11476,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1985</v>
       </c>
@@ -11611,7 +11494,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1986</v>
       </c>
@@ -11629,7 +11512,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1986</v>
       </c>
@@ -11647,7 +11530,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1986</v>
       </c>
@@ -11665,7 +11548,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1987</v>
       </c>
@@ -11683,7 +11566,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1987</v>
       </c>
@@ -11701,7 +11584,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1987</v>
       </c>
@@ -11719,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1987</v>
       </c>
@@ -11737,7 +11620,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1988</v>
       </c>
@@ -11755,7 +11638,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1988</v>
       </c>
@@ -11773,7 +11656,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1988</v>
       </c>
@@ -11791,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1989</v>
       </c>
@@ -11809,7 +11692,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1989</v>
       </c>
@@ -11827,7 +11710,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1989</v>
       </c>
@@ -11845,7 +11728,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1990</v>
       </c>
@@ -11863,7 +11746,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1990</v>
       </c>
@@ -11881,7 +11764,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1990</v>
       </c>
@@ -11899,14 +11782,14 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -11925,7 +11808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D35 D37 D40 D45:D67">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11942,7 +11825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11959,7 +11842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11976,7 +11859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11993,7 +11876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12014,14 +11897,14 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -12032,7 +11915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12043,7 +11926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>

--- a/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
+++ b/Collections/Германия/Регулярный чекан ГДР 1950-1990.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -1348,6 +1348,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1376,9 +1379,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2443,14 +2443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:D6"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -2459,25 +2459,25 @@
     <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -2491,17 +2491,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -2515,14 +2515,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2537,17 +2537,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="15">
@@ -2561,17 +2561,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2585,7 +2585,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1952</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1953</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1954</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15">
@@ -2657,7 +2657,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1955</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15">
@@ -2681,7 +2681,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1956</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15">
@@ -2705,7 +2705,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1957</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15">
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1958</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15">
@@ -2753,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1959</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15">
@@ -2777,17 +2777,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2801,17 +2801,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2825,17 +2825,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2849,17 +2849,17 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2873,17 +2873,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -2897,17 +2897,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -2921,17 +2921,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -2945,17 +2945,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1968</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="C23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -2993,17 +2993,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -3017,17 +3017,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -3041,17 +3041,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="B26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -3065,7 +3065,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1972</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -3089,7 +3089,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1973</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="C28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15">
@@ -3113,17 +3113,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -3137,7 +3137,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1975</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15">
@@ -3161,17 +3161,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1977</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15">
@@ -3209,7 +3209,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1978</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="C33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -3233,7 +3233,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1979</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -3257,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1980</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -3281,7 +3281,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1981</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -3305,7 +3305,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1982</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -3329,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -3353,7 +3353,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1984</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="C39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15">
@@ -3377,7 +3377,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1985</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="C40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -3401,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1986</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="C41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -3425,7 +3425,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1987</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="C42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15">
@@ -3449,7 +3449,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1988</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="C43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -3473,7 +3473,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1989</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="C44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -3497,7 +3497,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1990</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15">
@@ -3809,16 +3809,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16:D16"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -3827,25 +3827,25 @@
     <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="19"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3859,17 +3859,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -3883,15 +3883,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="15">
@@ -3905,15 +3905,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="15">
@@ -3927,17 +3927,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -3951,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -3999,17 +3999,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -4023,17 +4023,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -4047,17 +4047,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -4071,17 +4071,17 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -4095,17 +4095,17 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -4119,17 +4119,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -4143,17 +4143,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -4167,17 +4167,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -4191,17 +4191,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -4215,17 +4215,17 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -4239,17 +4239,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -4263,17 +4263,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -4287,17 +4287,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -4311,17 +4311,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -4335,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -4359,17 +4359,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -4383,17 +4383,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -4407,17 +4407,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="B26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -4431,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -4455,17 +4455,17 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="B28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -4479,17 +4479,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -4503,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="C30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15">
@@ -4527,17 +4527,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -4551,17 +4551,17 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="B32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -4575,7 +4575,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -4599,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="C34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -4623,7 +4623,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="C35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -4647,7 +4647,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="C36" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -4671,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="C37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -4695,7 +4695,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -4719,7 +4719,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="C39" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15">
@@ -4743,7 +4743,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="C40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -4767,7 +4767,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="C41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -4791,7 +4791,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="C42" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15">
@@ -4815,7 +4815,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="C43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -4839,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="C44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -4863,7 +4863,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="C45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15">
@@ -4887,17 +4887,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -5116,16 +5105,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29:C29"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -5134,25 +5123,25 @@
     <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="19"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -5166,17 +5155,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="15">
@@ -5190,15 +5179,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="15">
@@ -5212,14 +5201,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="9" t="s">
         <v>75</v>
       </c>
@@ -5234,17 +5223,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -5258,7 +5247,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
@@ -5282,7 +5271,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -5309,17 +5298,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -5333,17 +5322,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -5357,17 +5346,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -5382,17 +5371,17 @@
       </c>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -5406,17 +5395,17 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -5430,17 +5419,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5454,17 +5443,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -5478,17 +5467,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -5502,17 +5491,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -5526,7 +5515,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -5536,7 +5525,7 @@
       <c r="C18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="15">
@@ -5550,17 +5539,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -5574,7 +5563,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -5584,7 +5573,7 @@
       <c r="C20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="15">
@@ -5598,17 +5587,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -5622,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -5632,7 +5621,7 @@
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="15">
@@ -5646,7 +5635,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -5656,7 +5645,7 @@
       <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15">
@@ -5670,17 +5659,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -5694,7 +5683,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -5704,7 +5693,7 @@
       <c r="C25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="15">
@@ -5718,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -5728,7 +5717,7 @@
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="15">
@@ -5742,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -5752,7 +5741,7 @@
       <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="15">
@@ -5766,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -5776,7 +5765,7 @@
       <c r="C28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="15">
@@ -5790,17 +5779,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -5814,17 +5803,17 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -5838,17 +5827,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -5862,17 +5851,17 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="B32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -5886,7 +5875,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -5896,7 +5885,7 @@
       <c r="C33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="15">
@@ -5910,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -5920,7 +5909,7 @@
       <c r="C34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15">
@@ -5934,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -5944,7 +5933,7 @@
       <c r="C35" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="15">
@@ -5958,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -5968,7 +5957,7 @@
       <c r="C36" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="15">
@@ -5982,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -5992,7 +5981,7 @@
       <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15">
@@ -6006,7 +5995,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -6016,7 +6005,7 @@
       <c r="C38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="15">
@@ -6030,17 +6019,17 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -6054,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -6064,7 +6053,7 @@
       <c r="C40" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="15">
@@ -6078,7 +6067,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -6088,7 +6077,7 @@
       <c r="C41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="15">
@@ -6102,17 +6091,17 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -6126,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -6136,7 +6125,7 @@
       <c r="C43" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="15">
@@ -6150,7 +6139,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -6160,7 +6149,7 @@
       <c r="C44" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="15">
@@ -6174,17 +6163,17 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -6198,17 +6187,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -6497,16 +6475,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30:C30"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -6515,11 +6493,11 @@
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -6529,9 +6507,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -6539,14 +6517,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -6557,14 +6535,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -6575,14 +6553,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -6593,14 +6571,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -6611,14 +6589,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -6629,14 +6607,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -6647,14 +6625,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -6665,14 +6643,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -6683,14 +6661,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -6701,14 +6679,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -6719,14 +6697,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -6737,14 +6715,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -6755,14 +6733,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -6773,14 +6751,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -6791,14 +6769,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -6809,14 +6787,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -6827,14 +6805,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -6845,14 +6823,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -6863,14 +6841,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -6881,14 +6859,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -6899,14 +6877,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -6917,7 +6895,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -6935,14 +6913,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -6953,7 +6931,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -6971,7 +6949,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -6989,7 +6967,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -7007,7 +6985,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -7025,14 +7003,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -7043,14 +7021,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -7061,14 +7039,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -7079,14 +7057,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -7097,7 +7075,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -7115,7 +7093,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -7133,7 +7111,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -7151,7 +7129,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -7169,7 +7147,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -7187,7 +7165,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -7205,7 +7183,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -7223,7 +7201,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -7241,14 +7219,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -7259,14 +7237,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -7277,7 +7255,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -7295,14 +7273,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -7313,17 +7291,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -7473,16 +7440,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16:C16"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -7491,11 +7458,11 @@
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -7505,9 +7472,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -7515,14 +7482,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -7533,14 +7500,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -7551,7 +7518,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
@@ -7569,14 +7536,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -7587,14 +7554,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -7605,14 +7572,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -7623,14 +7590,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -7641,14 +7608,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -7659,14 +7626,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -7677,14 +7644,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -7695,7 +7662,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -7713,14 +7680,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -7731,14 +7698,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -7749,14 +7716,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -7767,14 +7734,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -7785,14 +7752,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -7803,14 +7770,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -7821,14 +7788,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -7839,14 +7806,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -7857,14 +7824,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -7875,7 +7842,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -7893,14 +7860,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -7911,14 +7878,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -7929,7 +7896,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -7947,7 +7914,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -7965,7 +7932,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -7983,14 +7950,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -8001,14 +7968,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -8019,14 +7986,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -8037,14 +8004,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -8055,14 +8022,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -8073,7 +8040,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -8091,7 +8058,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -8109,7 +8076,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -8127,7 +8094,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -8145,7 +8112,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -8163,7 +8130,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -8181,7 +8148,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -8199,7 +8166,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -8217,14 +8184,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -8235,14 +8202,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -8253,7 +8220,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -8271,14 +8238,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -8289,17 +8256,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -8317,7 +8273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13 D23 D26:D28 D44 D34:D41">
+  <conditionalFormatting sqref="D23 D13 D26:D28 D44 D34:D41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8517,16 +8473,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26:C26"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -8535,11 +8491,11 @@
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -8549,9 +8505,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -8559,14 +8515,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -8577,14 +8533,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -8595,14 +8551,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -8613,14 +8569,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -8631,14 +8587,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -8649,14 +8605,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -8667,14 +8623,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -8685,14 +8641,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -8703,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1956</v>
       </c>
@@ -8721,14 +8677,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -8739,14 +8695,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -8757,14 +8713,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -8775,14 +8731,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -8793,14 +8749,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -8811,7 +8767,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1962</v>
       </c>
@@ -8829,7 +8785,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>1963</v>
       </c>
@@ -8847,14 +8803,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -8865,14 +8821,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -8883,14 +8839,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -8901,14 +8857,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -8919,14 +8875,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -8937,14 +8893,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -8955,14 +8911,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -8973,14 +8929,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -8991,7 +8947,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1972</v>
       </c>
@@ -9009,7 +8965,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1973</v>
       </c>
@@ -9027,14 +8983,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -9045,7 +9001,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1975</v>
       </c>
@@ -9063,14 +9019,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -9081,7 +9037,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1977</v>
       </c>
@@ -9099,7 +9055,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1978</v>
       </c>
@@ -9117,7 +9073,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1979</v>
       </c>
@@ -9135,7 +9091,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1980</v>
       </c>
@@ -9153,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1981</v>
       </c>
@@ -9171,7 +9127,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1982</v>
       </c>
@@ -9189,7 +9145,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1983</v>
       </c>
@@ -9207,7 +9163,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1984</v>
       </c>
@@ -9225,7 +9181,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1985</v>
       </c>
@@ -9243,7 +9199,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1986</v>
       </c>
@@ -9261,14 +9217,14 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>1987</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -9279,14 +9235,14 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1988</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -9297,14 +9253,14 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1989</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -9315,14 +9271,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -9333,17 +9289,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -9510,16 +9455,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31:C31"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -9528,11 +9473,11 @@
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -9542,9 +9487,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -9552,14 +9497,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -9570,14 +9515,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -9588,14 +9533,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -9606,14 +9551,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -9624,14 +9569,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -9642,14 +9587,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -9660,14 +9605,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -9678,14 +9623,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -9696,14 +9641,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -9714,7 +9659,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -9732,14 +9677,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -9750,14 +9695,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -9768,14 +9713,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -9786,14 +9731,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -9804,14 +9749,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -9822,14 +9767,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -9840,14 +9785,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -9858,14 +9803,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -9876,14 +9821,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -9894,14 +9839,14 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -9912,14 +9857,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -9930,14 +9875,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -9948,14 +9893,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -9966,14 +9911,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -9984,14 +9929,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -10002,14 +9947,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -10020,7 +9965,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -10038,7 +9983,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -10056,14 +10001,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -10074,7 +10019,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -10092,7 +10037,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -10110,7 +10055,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -10128,7 +10073,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -10146,7 +10091,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
@@ -10164,7 +10109,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -10182,7 +10127,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
@@ -10200,7 +10145,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
@@ -10218,7 +10163,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
@@ -10236,7 +10181,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
@@ -10254,7 +10199,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
@@ -10272,7 +10217,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
@@ -10290,7 +10235,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
@@ -10308,14 +10253,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -10326,17 +10271,6 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -10537,16 +10471,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -10555,11 +10489,11 @@
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -10569,9 +10503,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
@@ -10579,14 +10513,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -10597,14 +10531,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -10615,14 +10549,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -10633,14 +10567,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -10651,14 +10585,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -10669,14 +10603,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -10687,14 +10621,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -10705,14 +10639,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -10723,14 +10657,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -10741,14 +10675,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -10759,14 +10693,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -10777,14 +10711,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -10798,14 +10732,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -10819,14 +10753,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -10840,14 +10774,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -10861,14 +10795,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -10882,14 +10816,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -10903,14 +10837,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -10924,14 +10858,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -10945,14 +10879,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -10966,14 +10900,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -10987,7 +10921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -11008,14 +10942,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -11026,7 +10960,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -11044,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -11062,14 +10996,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -11080,14 +11014,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -11098,14 +11032,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -11116,14 +11050,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -11134,14 +11068,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -11152,7 +11086,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -11170,7 +11104,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
@@ -11188,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
@@ -11206,14 +11140,14 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="18" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -11224,7 +11158,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1981</v>
       </c>
@@ -11242,7 +11176,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1982</v>
       </c>
@@ -11260,7 +11194,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1982</v>
       </c>
@@ -11278,7 +11212,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1982</v>
       </c>
@@ -11296,7 +11230,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1983</v>
       </c>
@@ -11314,7 +11248,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1983</v>
       </c>
@@ -11332,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1983</v>
       </c>
@@ -11350,7 +11284,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1983</v>
       </c>
@@ -11368,7 +11302,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1983</v>
       </c>
@@ -11386,7 +11320,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1984</v>
       </c>
@@ -11404,7 +11338,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1984</v>
       </c>
@@ -11422,7 +11356,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1984</v>
       </c>
@@ -11440,7 +11374,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1985</v>
       </c>
@@ -11458,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1985</v>
       </c>
@@ -11476,7 +11410,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1985</v>
       </c>
@@ -11494,7 +11428,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1986</v>
       </c>
@@ -11512,7 +11446,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1986</v>
       </c>
@@ -11530,7 +11464,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1986</v>
       </c>
@@ -11548,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1987</v>
       </c>
@@ -11566,7 +11500,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1987</v>
       </c>
@@ -11584,7 +11518,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1987</v>
       </c>
@@ -11602,7 +11536,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1987</v>
       </c>
@@ -11620,7 +11554,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1988</v>
       </c>
@@ -11638,7 +11572,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1988</v>
       </c>
@@ -11656,7 +11590,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1988</v>
       </c>
@@ -11674,7 +11608,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1989</v>
       </c>
@@ -11692,7 +11626,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1989</v>
       </c>
@@ -11710,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1989</v>
       </c>
@@ -11728,7 +11662,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1990</v>
       </c>
@@ -11746,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1990</v>
       </c>
@@ -11764,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1990</v>
       </c>
@@ -11782,14 +11716,6 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -11894,7 +11820,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
